--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1670.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1670.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.301340525570942</v>
+        <v>4.043363094329834</v>
       </c>
       <c r="B1">
-        <v>3.242648193668065</v>
+        <v>2.528892278671265</v>
       </c>
       <c r="C1">
-        <v>2.497746596494941</v>
+        <v>1.810941100120544</v>
       </c>
       <c r="D1">
-        <v>2.333862330326491</v>
+        <v>1.653499126434326</v>
       </c>
       <c r="E1">
-        <v>2.002397031999016</v>
+        <v>1.690486431121826</v>
       </c>
     </row>
   </sheetData>
